--- a/Dataset/Folds/Fold_1/Excel/75.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3715" uniqueCount="492">
   <si>
     <t>Doi</t>
   </si>
@@ -1448,6 +1448,168 @@
   </si>
   <si>
     <t>[ Xuemei%Qin%elasticNoEmail%1,   Kongliang% Shu%elasticNoEmail%1,   Mi% Wang%elasticNoEmail%1,   Wentao% Chen%elasticNoEmail%1,   Mei% Huang%elasticNoEmail%1,   Aiping% Yang%elasticNoEmail%1,   Yun% Zhou%elasticNoEmail%1,   Yan% Zhang%elasticNoEmail%1,   Yumeng% Ju%elasticNoEmail%1,   Jiyang% Liu%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                             Wei%Chen%NULL%0,                             Saiduo%Liu%NULL%0,                             Paul M.%Thompson%NULL%0,                             Long Jiang%Zhang%NULL%0,                             Fei%Xia%NULL%0,                             Fang%Cheng%NULL%0,                             Ailing%Hong%NULL%0,                             Wesley%Surento%NULL%0,                             Song%Luo%NULL%0,                             Zhi Yuan%Sun%NULL%0,                             Chang Sheng%Zhou%NULL%0,                             Lingjiang%Li%NULL%0,                             Xiangao%Jiang%NULL%0,                             Guang Ming%Lu%NULL%0,                              R.%Qi%null%0,                              W.% Chen%null%0,                              S.% Liu%null%0,                              P. M.% Thompson%null%0,                              L. J.% Zhang%null%0,                              F.% Xia%null%0,                              F.% Cheng%null%0,                              A.% Hong%null%0,                              W.% Surento%null%0,                              S.% Luo%null%0,                              Z. Y.% Sun%null%0,                              C. S.% Zhou%null%0,                              L.% Li%null%0,                              X.% Jiang%null%0,                              G. M. % Lu%null%0,                          R.%Qi%null%1,                          W.% Chen%null%1,                          S.% Liu%null%1,                          P. M.% Thompson%null%1,                          L. J.% Zhang%null%1,                          F.% Xia%null%1,                          F.% Cheng%null%1,                          A.% Hong%null%1,                          W.% Surento%null%1,                          S.% Luo%null%1,                          Z. Y.% Sun%null%1,                          C. S.% Zhou%null%1,                          L.% Li%null%1,                          X.% Jiang%null%1,                          G. M. % Lu%null%1,          R.%Qi%null%0,          W.% Chen%null%0,          S.% Liu%null%0,          P. M.% Thompson%null%0,          L. J.% Zhang%null%0,          F.% Xia%null%0,          F.% Cheng%null%0,          A.% Hong%null%0,          W.% Surento%null%0,          S.% Luo%null%0,          Z. Y.% Sun%null%0,          C. S.% Zhou%null%0,          L.% Li%null%0,          X.% Jiang%null%0,          G. M. % Lu%null%0]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                             Bilgin%Öztürk%Drbilgin@gmail.com%2,                             Bilgin%Öztürk%Drbilgin@gmail.com%0,                             Ali Rıza%Sonkaya%NULL%2,                             Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                             Mariangela%Pierantozzi%NULL%2,                             Matteo%Spanetta%NULL%2,                             Loredana%Sarmati%NULL%2,                             Novella%Cesta%NULL%2,                             Marco%Iannetta%NULL%2,                             Josuel%Ora%NULL%2,                             Grazia Genga%Mina%NULL%2,                             Ermanno%Puxeddu%NULL%2,                             Ottavia%Balbi%NULL%2,                             Gabriella%Pezzuto%NULL%2,                             Andrea%Magrini%NULL%2,                             Paola%Rogliani%NULL%2,                             Massimo%Andreoni%NULL%2,                             Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                             Mariangela%Pierantozzi%NULL%0,                             Matteo%Spanetta%NULL%0,                             Loredana%Sarmati%NULL%0,                             Novella%Cesta%NULL%0,                             Marco%Iannetta%NULL%0,                             Josuel%Ora%NULL%0,                             Grazia Genga%Mina%NULL%0,                             Ermanno%Puxeddu%NULL%0,                             Ottavia%Balbi%NULL%0,                             Gabriella%Pezzuto%NULL%0,                             Andrea%Magrini%NULL%0,                             Paola%Rogliani%NULL%0,                             Massimo%Andreoni%NULL%0,                             Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                             Yuchen%Zheng%NULL%1,                             Jia%Shi%NULL%1,                             Jijun%Wang%NULL%1,                             Guanjun%Li%NULL%1,                             Chunbo%Li%NULL%1,                             John A.%Fromson%NULL%1,                             Yong%Xu%NULL%1,                             Xiaohua%Liu%NULL%1,                             Hua%Xu%NULL%1,                             Tianhong%Zhang%NULL%1,                             Yunfei%Lu%NULL%0,                             Xiaorong%Chen%NULL%1,                             Hao%Hu%NULL%1,                             Yingying%Tang%NULL%1,                             Shuwen%Yang%NULL%1,                             Han%Zhou%NULL%1,                             Xiaoliang%Wang%NULL%1,                             Haiying%Chen%NULL%1,                             Zhen%Wang%NULL%1,                             Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                             Guido%Mascialino%NULL%2,                             Guido%Mascialino%NULL%0,                             Lila%Adana‐Díaz%NULL%2,                             Lila%Adana‐Díaz%NULL%0,                             Alberto%Rodríguez‐Lorenzana%NULL%2,                             Alberto%Rodríguez‐Lorenzana%NULL%0,                             Katherine%Simbaña‐Rivera%NULL%2,                             Katherine%Simbaña‐Rivera%NULL%0,                             Lenin%Gómez‐Barreno%NULL%2,                             Lenin%Gómez‐Barreno%NULL%0,                             Maritza%Troya%NULL%2,                             Maritza%Troya%NULL%0,                             María Ignacia%Páez%NULL%2,                             María Ignacia%Páez%NULL%0,                             Javier%Cárdenas%NULL%2,                             Javier%Cárdenas%NULL%0,                             Rebekka M%Gerstner%NULL%2,                             Rebekka M%Gerstner%NULL%0,                             Esteban%Ortiz‐Prado%NULL%2,                             Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                             Huipeng%Lu%NULL%1,                             Haiping%Zeng%NULL%1,                             Shining%Zhang%NULL%1,                             Qifeng%Du%NULL%1,                             Tingyun%Jiang%NULL%1,                             Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                             Li-Yun%Zhu%NULL%2,                             Yu-Fen%Ma%NULL%1,                             Hai-Xin%Bo%NULL%2,                             Hai-Bo%Deng%NULL%1,                             Jing%Cao%NULL%2,                             Ying%Wang%NULL%0,                             Xiao-Jie%Wang%NULL%1,                             Yuan%Xu%NULL%1,                             Qiao-Dan%Lu%NULL%1,                             Hui%Wang%NULL%1,                             Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                             Yingying%Chen%NULL%1,                             Yixiong%Zheng%NULL%1,                             Ciping%You%NULL%1,                             Jing%Tan%NULL%1,                             Lan%Hu%NULL%1,                             Zhenqing%Zhang%NULL%1,                             Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                             Wen%Li%NULL%0,                             Hai-Bao%Deng%NULL%1,                             Lei%Wang%NULL%0,                             Ying%Wang%NULL%0,                             Pei-Hong%Wang%NULL%1,                             Hai-Xin%Bo%NULL%0,                             Jing%Cao%NULL%0,                             Yu%Wang%NULL%0,                             Li-Yun%Zhu%NULL%0,                             Yuan%Yang%NULL%0,                             Teris%Cheung%NULL%0,                             Chee H.%Ng%NULL%1,                             Xinjuan%Wu%wuxinjuan@sina.com%0,                             Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                             Zhen%Yang%NULL%1,                             Xiao%Wang%NULL%0,                             Juan%Li%NULL%2,                             Lili%Dong%NULL%2,                             Lili%Dong%NULL%0,                             Fusheng%Wang%NULL%1,                             Yifei%Li%NULL%1,                             Ruihong%Wei%NULL%1,                             Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                              Wei%Chen%NULL%0,                              Saiduo%Liu%NULL%0,                              Paul M.%Thompson%NULL%0,                              Long Jiang%Zhang%NULL%0,                              Fei%Xia%NULL%0,                              Fang%Cheng%NULL%0,                              Ailing%Hong%NULL%0,                              Wesley%Surento%NULL%0,                              Song%Luo%NULL%0,                              Zhi Yuan%Sun%NULL%0,                              Chang Sheng%Zhou%NULL%0,                              Lingjiang%Li%NULL%0,                              Xiangao%Jiang%NULL%0,                              Guang Ming%Lu%NULL%0,                               R.%Qi%null%0,                               W.% Chen%null%0,                               S.% Liu%null%0,                               P. M.% Thompson%null%0,                               L. J.% Zhang%null%0,                               F.% Xia%null%0,                               F.% Cheng%null%0,                               A.% Hong%null%0,                               W.% Surento%null%0,                               S.% Luo%null%0,                               Z. Y.% Sun%null%0,                               C. S.% Zhou%null%0,                               L.% Li%null%0,                               X.% Jiang%null%0,                               G. M. % Lu%null%0,                           R.%Qi%null%1,                           W.% Chen%null%1,                           S.% Liu%null%1,                           P. M.% Thompson%null%1,                           L. J.% Zhang%null%1,                           F.% Xia%null%1,                           F.% Cheng%null%1,                           A.% Hong%null%1,                           W.% Surento%null%1,                           S.% Luo%null%1,                           Z. Y.% Sun%null%1,                           C. S.% Zhou%null%1,                           L.% Li%null%1,                           X.% Jiang%null%1,                           G. M. % Lu%null%1,           R.%Qi%null%0,           W.% Chen%null%0,           S.% Liu%null%0,           P. M.% Thompson%null%0,           L. J.% Zhang%null%0,           F.% Xia%null%0,           F.% Cheng%null%0,           A.% Hong%null%0,           W.% Surento%null%0,           S.% Luo%null%0,           Z. Y.% Sun%null%0,           C. S.% Zhou%null%0,           L.% Li%null%0,           X.% Jiang%null%0,           G. M. % Lu%null%0]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                              Bilgin%Öztürk%Drbilgin@gmail.com%2,                              Bilgin%Öztürk%Drbilgin@gmail.com%0,                              Ali Rıza%Sonkaya%NULL%2,                              Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                              Mariangela%Pierantozzi%NULL%2,                              Matteo%Spanetta%NULL%2,                              Loredana%Sarmati%NULL%2,                              Novella%Cesta%NULL%2,                              Marco%Iannetta%NULL%2,                              Josuel%Ora%NULL%2,                              Grazia Genga%Mina%NULL%2,                              Ermanno%Puxeddu%NULL%2,                              Ottavia%Balbi%NULL%2,                              Gabriella%Pezzuto%NULL%2,                              Andrea%Magrini%NULL%2,                              Paola%Rogliani%NULL%2,                              Massimo%Andreoni%NULL%2,                              Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                              Mariangela%Pierantozzi%NULL%0,                              Matteo%Spanetta%NULL%0,                              Loredana%Sarmati%NULL%0,                              Novella%Cesta%NULL%0,                              Marco%Iannetta%NULL%0,                              Josuel%Ora%NULL%0,                              Grazia Genga%Mina%NULL%0,                              Ermanno%Puxeddu%NULL%0,                              Ottavia%Balbi%NULL%0,                              Gabriella%Pezzuto%NULL%0,                              Andrea%Magrini%NULL%0,                              Paola%Rogliani%NULL%0,                              Massimo%Andreoni%NULL%0,                              Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                              Yuchen%Zheng%NULL%1,                              Jia%Shi%NULL%1,                              Jijun%Wang%NULL%1,                              Guanjun%Li%NULL%1,                              Chunbo%Li%NULL%1,                              John A.%Fromson%NULL%1,                              Yong%Xu%NULL%1,                              Xiaohua%Liu%NULL%1,                              Hua%Xu%NULL%1,                              Tianhong%Zhang%NULL%1,                              Yunfei%Lu%NULL%0,                              Xiaorong%Chen%NULL%1,                              Hao%Hu%NULL%1,                              Yingying%Tang%NULL%1,                              Shuwen%Yang%NULL%1,                              Han%Zhou%NULL%1,                              Xiaoliang%Wang%NULL%1,                              Haiying%Chen%NULL%1,                              Zhen%Wang%NULL%1,                              Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                              Guido%Mascialino%NULL%2,                              Guido%Mascialino%NULL%0,                              Lila%Adana‐Díaz%NULL%2,                              Lila%Adana‐Díaz%NULL%0,                              Alberto%Rodríguez‐Lorenzana%NULL%2,                              Alberto%Rodríguez‐Lorenzana%NULL%0,                              Katherine%Simbaña‐Rivera%NULL%2,                              Katherine%Simbaña‐Rivera%NULL%0,                              Lenin%Gómez‐Barreno%NULL%2,                              Lenin%Gómez‐Barreno%NULL%0,                              Maritza%Troya%NULL%2,                              Maritza%Troya%NULL%0,                              María Ignacia%Páez%NULL%2,                              María Ignacia%Páez%NULL%0,                              Javier%Cárdenas%NULL%2,                              Javier%Cárdenas%NULL%0,                              Rebekka M%Gerstner%NULL%2,                              Rebekka M%Gerstner%NULL%0,                              Esteban%Ortiz‐Prado%NULL%2,                              Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                              Huipeng%Lu%NULL%1,                              Haiping%Zeng%NULL%1,                              Shining%Zhang%NULL%1,                              Qifeng%Du%NULL%1,                              Tingyun%Jiang%NULL%1,                              Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                              Li-Yun%Zhu%NULL%2,                              Yu-Fen%Ma%NULL%1,                              Hai-Xin%Bo%NULL%2,                              Hai-Bo%Deng%NULL%1,                              Jing%Cao%NULL%2,                              Ying%Wang%NULL%0,                              Xiao-Jie%Wang%NULL%1,                              Yuan%Xu%NULL%1,                              Qiao-Dan%Lu%NULL%1,                              Hui%Wang%NULL%1,                              Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                              Yingying%Chen%NULL%1,                              Yixiong%Zheng%NULL%1,                              Ciping%You%NULL%1,                              Jing%Tan%NULL%1,                              Lan%Hu%NULL%1,                              Zhenqing%Zhang%NULL%1,                              Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                              Wen%Li%NULL%0,                              Hai-Bao%Deng%NULL%1,                              Lei%Wang%NULL%0,                              Ying%Wang%NULL%0,                              Pei-Hong%Wang%NULL%1,                              Hai-Xin%Bo%NULL%0,                              Jing%Cao%NULL%0,                              Yu%Wang%NULL%0,                              Li-Yun%Zhu%NULL%0,                              Yuan%Yang%NULL%0,                              Teris%Cheung%NULL%0,                              Chee H.%Ng%NULL%1,                              Xinjuan%Wu%wuxinjuan@sina.com%0,                              Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                              Zhen%Yang%NULL%1,                              Xiao%Wang%NULL%0,                              Juan%Li%NULL%2,                              Lili%Dong%NULL%2,                              Lili%Dong%NULL%0,                              Fusheng%Wang%NULL%1,                              Yifei%Li%NULL%1,                              Ruihong%Wei%NULL%1,                              Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Psychological morbidities and fatigue in patients with confirmed COVID-19 during disease outbreak: prevalence and associated biopsychosocial risk factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective:
+id="P2"&gt;The coronavirus disease 2019 (COVID-19) - a novel and highly infectious pneumonia - has now spread across China and beyond for over four months.
+ However, its psychological impact on patients is unclear.
+ We aim to examine the prevalence and associated risk factors for psychological morbidities and fatigue in patients with confirmed COVID-19 infection.
+Methods:
+id="P3"&gt;Amidst the disease outbreak, 41 out of 105 COVID-19 patients in a local designated hospital in China were successfully assessed using a constellation of psychometric questionnaires to determine their psychological morbidities and fatigue.
+ Several potential biopsychosocial risk factors (including pre-existing disabilities, CT severity score of pneumonia, social support, coping strategies) were assessed through multivariable logistic regression analyses to clarify their association with mental health in patients.
+Results:
+id="P4"&gt;43.9% of 41 patients presented with impaired general mental health, 12.2% had post-traumatic stress disorder (PTSD) symptoms, 26.8% had anxiety and/or depression symptoms, and 53.6% had fatigue.
+ We did not find any association between pneumonia severity and psychological morbidities or fatigue in COVID-19 patients.
+ However, high perceived stigmatization was associated with an increased risk of impaired general mental health and high perceived social support was associated with decreased risk.
+ Besides, negative coping inclination was associated with an increased risk of PTSD symptoms; high perceived social support was associated with a decreased risk of anxiety and/or depression symptoms.
+Conclusions:
+id="P5"&gt;Psychological morbidities and chronic fatigue are common among COVID-19 patients.
+ Negative coping inclination and being stigmatized are primary risk factors while perceived social support is the main protective factor.
+</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0, Wei%Chen%NULL%0, Saiduo%Liu%NULL%0, Paul M.%Thompson%NULL%0, Long Jiang%Zhang%NULL%0, Fei%Xia%NULL%0, Fang%Cheng%NULL%0, Ailing%Hong%NULL%0, Wesley%Surento%NULL%0, Song%Luo%NULL%0, Zhi Yuan%Sun%NULL%0, Chang Sheng%Zhou%NULL%0, Lingjiang%Li%NULL%0, Xiangao%Jiang%NULL%0, Guang Ming%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>PMC7273270</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor Laboratory</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%0, Bilgin%Öztürk%Drbilgin@gmail.com%2, Bilgin%Öztürk%Drbilgin@gmail.com%0, Ali Rıza%Sonkaya%NULL%2, Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              COVID-19 is a novel pathology due to SARS-CoV2 infection.
+</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Considerable portion of COVID-19 patients presented depression and anxiety symptoms.
+</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%0, Yuchen%Zheng%NULL%1, Jia%Shi%NULL%1, Jijun%Wang%NULL%1, Guanjun%Li%NULL%1, Chunbo%Li%NULL%1, John A.%Fromson%NULL%1, Yong%Xu%NULL%1, Xiaohua%Liu%NULL%1, Hua%Xu%NULL%1, Tianhong%Zhang%NULL%1, Yunfei%Lu%NULL%0, Xiaorong%Chen%NULL%1, Hao%Hu%NULL%1, Yingying%Tang%NULL%1, Shuwen%Yang%NULL%1, Han%Zhou%NULL%1, Xiaoliang%Wang%NULL%1, Haiying%Chen%NULL%1, Zhen%Wang%NULL%0, Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%0, Guido%Mascialino%NULL%2, Guido%Mascialino%NULL%0, Lila%Adana‐Díaz%NULL%2, Lila%Adana‐Díaz%NULL%0, Alberto%Rodríguez‐Lorenzana%NULL%2, Alberto%Rodríguez‐Lorenzana%NULL%0, Katherine%Simbaña‐Rivera%NULL%2, Katherine%Simbaña‐Rivera%NULL%0, Lenin%Gómez‐Barreno%NULL%2, Lenin%Gómez‐Barreno%NULL%0, Maritza%Troya%NULL%2, Maritza%Troya%NULL%0, María Ignacia%Páez%NULL%2, María Ignacia%Páez%NULL%0, Javier%Cárdenas%NULL%2, Javier%Cárdenas%NULL%0, Rebekka M%Gerstner%NULL%2, Rebekka M%Gerstner%NULL%0, Esteban%Ortiz‐Prado%NULL%2, Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons Australia, Ltd</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0, Huipeng%Lu%NULL%1, Haiping%Zeng%NULL%1, Shining%Zhang%NULL%1, Qifeng%Du%NULL%1, Tingyun%Jiang%NULL%1, Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%0, Li-Yun%Zhu%NULL%2, Yu-Fen%Ma%NULL%0, Hai-Xin%Bo%NULL%0, Hai-Bo%Deng%NULL%1, Jing%Cao%NULL%2, Ying%Wang%NULL%0, Xiao-Jie%Wang%NULL%1, Yuan%Xu%NULL%1, Qiao-Dan%Lu%NULL%1, Hui%Wang%NULL%0, Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Large proportions of inpatients with COVID-19 had mental health problems.
+</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%0, Yingying%Chen%NULL%1, Yixiong%Zheng%NULL%1, Ciping%You%NULL%1, Jing%Tan%NULL%1, Lan%Hu%NULL%1, Zhenqing%Zhang%NULL%1, Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Patients infected with COVID-19 are vulnerable to mental health problems.
+</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%0, Wen%Li%NULL%0, Hai-Bao%Deng%NULL%1, Lei%Wang%NULL%0, Ying%Wang%NULL%0, Pei-Hong%Wang%NULL%1, Hai-Xin%Bo%NULL%0, Jing%Cao%NULL%0, Yu%Wang%NULL%0, Li-Yun%Zhu%NULL%0, Yuan%Yang%NULL%0, Teris%Cheung%NULL%0, Chee H.%Ng%NULL%1, Xinjuan%Wu%wuxinjuan@sina.com%0, Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0, Zhen%Yang%NULL%0, Xiao%Wang%NULL%0, Juan%Li%NULL%0, Lili%Dong%NULL%2, Lili%Dong%NULL%0, Fusheng%Wang%NULL%1, Yifei%Li%NULL%1, Ruihong%Wei%NULL%1, Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
   </si>
 </sst>
 </file>
@@ -1797,28 +1959,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>470</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>472</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>323</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3">
@@ -1832,10 +1994,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1847,10 +2009,10 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4">
@@ -1864,10 +2026,10 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>476</v>
       </c>
       <c r="E4" t="s">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1879,10 +2041,10 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>327</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5">
@@ -1896,10 +2058,10 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>476</v>
       </c>
       <c r="E5" t="s">
-        <v>436</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1911,10 +2073,10 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>327</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
@@ -1928,10 +2090,10 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>478</v>
       </c>
       <c r="E6" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1943,10 +2105,10 @@
         <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>327</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7">
@@ -1957,25 +2119,25 @@
         <v>43926.0</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>331</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
         <v>56</v>
@@ -1989,25 +2151,25 @@
         <v>44348.0</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
         <v>56</v>
@@ -2027,7 +2189,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2039,10 +2201,10 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>323</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10">
@@ -2059,7 +2221,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -2071,10 +2233,10 @@
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>327</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11">
@@ -2091,7 +2253,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -2103,10 +2265,10 @@
         <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>327</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12">
@@ -2120,10 +2282,10 @@
         <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>485</v>
       </c>
       <c r="E12" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -2135,10 +2297,10 @@
         <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>327</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2314,10 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>487</v>
       </c>
       <c r="E13" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2167,10 +2329,10 @@
         <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>327</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14">
@@ -2187,7 +2349,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2199,10 +2361,10 @@
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>323</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15">
@@ -2213,22 +2375,22 @@
         <v>44010.0</v>
       </c>
       <c r="C15" t="s">
-        <v>428</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>431</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>432</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
         <v>56</v>
@@ -2245,28 +2407,28 @@
         <v>44166.0</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
         <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>367</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
